--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>118.5827000850337</v>
+        <v>703.7882045961279</v>
       </c>
       <c r="R2">
-        <v>474.330800340135</v>
+        <v>2815.152818384512</v>
       </c>
       <c r="S2">
-        <v>4.089192083487874E-05</v>
+        <v>6.73032330269551E-05</v>
       </c>
       <c r="T2">
-        <v>1.945798359883094E-05</v>
+        <v>3.130275000956568E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>699.7650879575564</v>
+        <v>2362.309619307693</v>
       </c>
       <c r="R3">
-        <v>4198.590527745338</v>
+        <v>14173.85771584616</v>
       </c>
       <c r="S3">
-        <v>0.00024130618175546</v>
+        <v>0.0002259075581997301</v>
       </c>
       <c r="T3">
-        <v>0.0001722344523452678</v>
+        <v>0.0001576044901906583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>1453.494587008164</v>
+        <v>7491.720819682641</v>
       </c>
       <c r="R4">
-        <v>8720.967522048984</v>
+        <v>44950.32491809584</v>
       </c>
       <c r="S4">
-        <v>0.0005012213884760752</v>
+        <v>0.0007164329109342479</v>
       </c>
       <c r="T4">
-        <v>0.000357751263228706</v>
+        <v>0.000499819681038615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>535.2531675283598</v>
+        <v>2478.106307698462</v>
       </c>
       <c r="R5">
-        <v>2141.012670113439</v>
+        <v>9912.425230793848</v>
       </c>
       <c r="S5">
-        <v>0.0001845760818187862</v>
+        <v>0.0002369811900844616</v>
       </c>
       <c r="T5">
-        <v>8.78285563368075E-05</v>
+        <v>0.000110220009003316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>109.8124108251195</v>
+        <v>13750.81662486291</v>
       </c>
       <c r="R6">
-        <v>658.874464950717</v>
+        <v>82504.89974917746</v>
       </c>
       <c r="S6">
-        <v>3.786758445311116E-05</v>
+        <v>0.001314989949490791</v>
       </c>
       <c r="T6">
-        <v>2.702832816993179E-05</v>
+        <v>0.0009174032168153606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>915.4972264005764</v>
+        <v>3864.504706658437</v>
       </c>
       <c r="R7">
-        <v>5492.983358403458</v>
+        <v>23187.02823995062</v>
       </c>
       <c r="S7">
-        <v>0.0003156990022969486</v>
+        <v>0.0003695624040122319</v>
       </c>
       <c r="T7">
-        <v>0.0002253329954955954</v>
+        <v>0.0002578253456508367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>621.9917499483651</v>
+        <v>1093.504881558037</v>
       </c>
       <c r="R8">
-        <v>3731.95049969019</v>
+        <v>6561.029289348224</v>
       </c>
       <c r="S8">
-        <v>0.0002144869140321279</v>
+        <v>0.000104571820583221</v>
       </c>
       <c r="T8">
-        <v>0.0001530919593721275</v>
+        <v>7.295456868581756E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>3670.418292882374</v>
       </c>
       <c r="R9">
-        <v>33033.76463594136</v>
+        <v>33033.76463594137</v>
       </c>
       <c r="S9">
-        <v>0.001265702789326009</v>
+        <v>0.0003510019293574565</v>
       </c>
       <c r="T9">
-        <v>0.001355110083580632</v>
+        <v>0.0003673149356300653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>7623.891520984056</v>
+        <v>11640.19691448807</v>
       </c>
       <c r="R10">
-        <v>68615.0236888565</v>
+        <v>104761.7722303926</v>
       </c>
       <c r="S10">
-        <v>0.002629013914392474</v>
+        <v>0.001113151485488458</v>
       </c>
       <c r="T10">
-        <v>0.002814723405298118</v>
+        <v>0.001164885808426165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>2807.517910265461</v>
+        <v>3850.33640346825</v>
       </c>
       <c r="R11">
-        <v>16845.10746159277</v>
+        <v>23102.0184208095</v>
       </c>
       <c r="S11">
-        <v>0.0009681412216685465</v>
+        <v>0.000368207489842062</v>
       </c>
       <c r="T11">
-        <v>0.0006910194836033774</v>
+        <v>0.0002568800892869353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>575.9896977062109</v>
+        <v>21365.21329357291</v>
       </c>
       <c r="R12">
-        <v>5183.907279355898</v>
+        <v>192286.9196421562</v>
       </c>
       <c r="S12">
-        <v>0.0001986236196630572</v>
+        <v>0.0020431543461191</v>
       </c>
       <c r="T12">
-        <v>0.0002126540860244291</v>
+        <v>0.002138111059676665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>4801.979728184961</v>
+        <v>6004.441014978416</v>
       </c>
       <c r="R13">
-        <v>43217.81755366464</v>
+        <v>54039.96913480574</v>
       </c>
       <c r="S13">
-        <v>0.001655909122956585</v>
+        <v>0.0005742044129023224</v>
       </c>
       <c r="T13">
-        <v>0.00177287999120752</v>
+        <v>0.0006008908764399515</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>65653.42299450247</v>
+        <v>31570.31324760512</v>
       </c>
       <c r="R14">
-        <v>393920.5379670148</v>
+        <v>189421.8794856307</v>
       </c>
       <c r="S14">
-        <v>0.02263985027921317</v>
+        <v>0.003019067576525884</v>
       </c>
       <c r="T14">
-        <v>0.01615939627261915</v>
+        <v>0.002106253593466874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>387425.5965121255</v>
+        <v>105967.7530574302</v>
       </c>
       <c r="R15">
-        <v>3486830.368609129</v>
+        <v>953709.777516872</v>
       </c>
       <c r="S15">
-        <v>0.1335993935929866</v>
+        <v>0.01013369125937508</v>
       </c>
       <c r="T15">
-        <v>0.1430366488443304</v>
+        <v>0.01060466009245667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>804728.6397816677</v>
+        <v>336061.2915880165</v>
       </c>
       <c r="R16">
-        <v>7242557.75803501</v>
+        <v>3024551.624292148</v>
       </c>
       <c r="S16">
-        <v>0.2775016912915172</v>
+        <v>0.03213752556718002</v>
       </c>
       <c r="T16">
-        <v>0.2971039830607153</v>
+        <v>0.0336311346112193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>296343.4176459762</v>
+        <v>111162.1250313535</v>
       </c>
       <c r="R17">
-        <v>1778060.505875857</v>
+        <v>666972.7501881209</v>
       </c>
       <c r="S17">
-        <v>0.1021907206163041</v>
+        <v>0.01063042880784005</v>
       </c>
       <c r="T17">
-        <v>0.07293954374510823</v>
+        <v>0.007416322526431169</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>60797.74412943702</v>
+        <v>616829.8721437347</v>
       </c>
       <c r="R18">
-        <v>547179.6971649332</v>
+        <v>5551468.849293613</v>
       </c>
       <c r="S18">
-        <v>0.02096542360814338</v>
+        <v>0.05898741176928373</v>
       </c>
       <c r="T18">
-        <v>0.02244638881854973</v>
+        <v>0.06172888393144194</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>506865.8970665209</v>
+        <v>173352.7549045291</v>
       </c>
       <c r="R19">
-        <v>4561793.073598688</v>
+        <v>1560174.794140762</v>
       </c>
       <c r="S19">
-        <v>0.1747870483795796</v>
+        <v>0.01657771582844222</v>
       </c>
       <c r="T19">
-        <v>0.1871337360839589</v>
+        <v>0.0173481742210498</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>2481.248450164012</v>
+        <v>6614.482956839984</v>
       </c>
       <c r="R20">
-        <v>9924.99380065605</v>
+        <v>26457.93182735993</v>
       </c>
       <c r="S20">
-        <v>0.0008556308392625137</v>
+        <v>0.0006325426952167957</v>
       </c>
       <c r="T20">
-        <v>0.0004071427924418585</v>
+        <v>0.0002941957610092545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>14642.02652434549</v>
+        <v>22201.93037286924</v>
       </c>
       <c r="R21">
-        <v>87852.15914607295</v>
+        <v>133211.5822372155</v>
       </c>
       <c r="S21">
-        <v>0.00504913945344796</v>
+        <v>0.002123169561204766</v>
       </c>
       <c r="T21">
-        <v>0.003603868588251852</v>
+        <v>0.001481230017041549</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>30413.21532356439</v>
+        <v>70410.18783148094</v>
       </c>
       <c r="R22">
-        <v>182479.2919413863</v>
+        <v>422461.1269888856</v>
       </c>
       <c r="S22">
-        <v>0.01048765791682523</v>
+        <v>0.006733322962997429</v>
       </c>
       <c r="T22">
-        <v>0.007485659938540031</v>
+        <v>0.004697505215536124</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>11199.74575905899</v>
+        <v>23290.23395172616</v>
       </c>
       <c r="R23">
-        <v>44798.98303623597</v>
+        <v>93160.93580690464</v>
       </c>
       <c r="S23">
-        <v>0.003862107344678437</v>
+        <v>0.002227243981454405</v>
       </c>
       <c r="T23">
-        <v>0.001837742513322569</v>
+        <v>0.001035891716135752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>2297.737140183318</v>
+        <v>129235.6729109751</v>
       </c>
       <c r="R24">
-        <v>13786.42284109991</v>
+        <v>775414.0374658507</v>
       </c>
       <c r="S24">
-        <v>0.0007923490118572147</v>
+        <v>0.01235880134466602</v>
       </c>
       <c r="T24">
-        <v>0.0005655462165566905</v>
+        <v>0.008622122255739726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>19156.04951234009</v>
+        <v>36320.16045720577</v>
       </c>
       <c r="R25">
-        <v>114936.2970740406</v>
+        <v>217920.9627432346</v>
       </c>
       <c r="S25">
-        <v>0.006605749907920101</v>
+        <v>0.003473295242608517</v>
       </c>
       <c r="T25">
-        <v>0.004714913266803115</v>
+        <v>0.002423145690012634</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>181.891960002885</v>
+        <v>25803.53526469177</v>
       </c>
       <c r="R26">
-        <v>1091.35176001731</v>
+        <v>154821.2115881506</v>
       </c>
       <c r="S26">
-        <v>6.272341263612059E-05</v>
+        <v>0.002467590868243373</v>
       </c>
       <c r="T26">
-        <v>4.476939855422515E-05</v>
+        <v>0.001721515667239351</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>1073.357608647126</v>
+        <v>86611.1980420395</v>
       </c>
       <c r="R27">
-        <v>9660.218477824132</v>
+        <v>779500.7823783555</v>
       </c>
       <c r="S27">
-        <v>0.0003701353935172587</v>
+        <v>0.008282624810275505</v>
       </c>
       <c r="T27">
-        <v>0.0003962811872386032</v>
+        <v>0.008667564319670883</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>2229.490297445723</v>
+        <v>274674.7971924878</v>
       </c>
       <c r="R28">
-        <v>20065.4126770115</v>
+        <v>2472073.17473239</v>
       </c>
       <c r="S28">
-        <v>0.0007688148497201155</v>
+        <v>0.02626713798462452</v>
       </c>
       <c r="T28">
-        <v>0.0008231227457569516</v>
+        <v>0.02748791756122418</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>821.015609103789</v>
+        <v>90856.74224541298</v>
       </c>
       <c r="R29">
-        <v>4926.093654622734</v>
+        <v>545140.453472478</v>
       </c>
       <c r="S29">
-        <v>0.0002831180709125133</v>
+        <v>0.008688626003503598</v>
       </c>
       <c r="T29">
-        <v>0.000202078063387873</v>
+        <v>0.006061623093322062</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>168.4393644545113</v>
+        <v>504156.9031432899</v>
       </c>
       <c r="R30">
-        <v>1515.954280090602</v>
+        <v>4537412.128289609</v>
       </c>
       <c r="S30">
-        <v>5.808443518162454E-05</v>
+        <v>0.0482125010234756</v>
       </c>
       <c r="T30">
-        <v>6.21874301593495E-05</v>
+        <v>0.05045320332688991</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>1404.265417871206</v>
+        <v>141687.346885917</v>
       </c>
       <c r="R31">
-        <v>12638.38876084085</v>
+        <v>1275186.121973253</v>
       </c>
       <c r="S31">
-        <v>0.0004842452588579116</v>
+        <v>0.01354955434342094</v>
       </c>
       <c r="T31">
-        <v>0.0005184515975933822</v>
+        <v>0.01417927727799257</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>20672.05060644503</v>
+        <v>174318.6562816837</v>
       </c>
       <c r="R32">
-        <v>124032.3036386702</v>
+        <v>1045911.937690102</v>
       </c>
       <c r="S32">
-        <v>0.007128525967845159</v>
+        <v>0.01667008493187866</v>
       </c>
       <c r="T32">
-        <v>0.005088049370177606</v>
+        <v>0.0116298908193274</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>121987.2654317116</v>
+        <v>585111.5944680019</v>
       </c>
       <c r="R33">
-        <v>1097885.388885405</v>
+        <v>5266004.350212016</v>
       </c>
       <c r="S33">
-        <v>0.04206594720241542</v>
+        <v>0.05595419436142941</v>
       </c>
       <c r="T33">
-        <v>0.04503742087802337</v>
+        <v>0.05855469608877805</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>253381.9320801489</v>
+        <v>1855596.183618927</v>
       </c>
       <c r="R34">
-        <v>2280437.38872134</v>
+        <v>16700365.65257034</v>
       </c>
       <c r="S34">
-        <v>0.08737593173523768</v>
+        <v>0.1774505760887262</v>
       </c>
       <c r="T34">
-        <v>0.09354803288355244</v>
+        <v>0.1856976884795686</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>93308.55646288942</v>
+        <v>613792.8411702412</v>
       </c>
       <c r="R35">
-        <v>559851.3387773365</v>
+        <v>3682757.047021447</v>
       </c>
       <c r="S35">
-        <v>0.03217641444629955</v>
+        <v>0.05869698063959975</v>
       </c>
       <c r="T35">
-        <v>0.0229662045136039</v>
+        <v>0.0409499699043098</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>19143.16095151137</v>
+        <v>3405888.108337198</v>
       </c>
       <c r="R36">
-        <v>172288.4485636024</v>
+        <v>30652992.97503478</v>
       </c>
       <c r="S36">
-        <v>0.006601305431544495</v>
+        <v>0.3257049202049313</v>
       </c>
       <c r="T36">
-        <v>0.007067611472868009</v>
+        <v>0.3408422341679884</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>159594.9913490064</v>
+        <v>957184.651944431</v>
       </c>
       <c r="R37">
-        <v>1436354.922141057</v>
+        <v>8614661.867499879</v>
       </c>
       <c r="S37">
-        <v>0.05503455181242233</v>
+        <v>0.09153552341305521</v>
       </c>
       <c r="T37">
-        <v>0.05892210772962522</v>
+        <v>0.09578968683129392</v>
       </c>
     </row>
   </sheetData>
